--- a/bin/sheets/main_db/teams/WIN/PlayerPerformance_3703.xlsx
+++ b/bin/sheets/main_db/teams/WIN/PlayerPerformance_3703.xlsx
@@ -7,7 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,6 +427,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3703</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Darren Michael Bravo</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Left Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Medium Fast</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -451,7 +516,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -503,7 +568,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2975</t>
+          <t>2975</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -543,7 +608,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>28/06/2009</t>
@@ -551,7 +615,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2976</t>
+          <t>2976</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -603,7 +667,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2977</t>
+          <t>2977</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -643,7 +707,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>05/07/2009</t>
@@ -651,7 +714,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2978</t>
+          <t>2978</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -703,7 +766,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3106</t>
+          <t>3106</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -755,7 +818,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3107</t>
+          <t>3107</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -807,7 +870,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3108</t>
+          <t>3108</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -859,7 +922,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3112</t>
+          <t>3112</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -911,7 +974,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3114</t>
+          <t>3114</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -963,7 +1026,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3117</t>
+          <t>3117</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1015,7 +1078,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3227</t>
+          <t>3227</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1067,7 +1130,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3231</t>
+          <t>3231</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1119,7 +1182,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3234</t>
+          <t>3234</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1171,7 +1234,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3241</t>
+          <t>3241</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1223,7 +1286,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3247</t>
+          <t>3247</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1275,7 +1338,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3253</t>
+          <t>3253</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1327,7 +1390,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3261</t>
+          <t>3261</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1379,7 +1442,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3270</t>
+          <t>3270</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1431,7 +1494,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3276</t>
+          <t>3276</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1483,7 +1546,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3277</t>
+          <t>3277</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1535,7 +1598,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3287</t>
+          <t>3287</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1587,7 +1650,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3288</t>
+          <t>3288</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1639,7 +1702,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3289</t>
+          <t>3289</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1691,7 +1754,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3290</t>
+          <t>3290</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1731,7 +1794,6 @@
           <t>25</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>05/05/2011</t>
@@ -1739,7 +1801,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3291</t>
+          <t>3291</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1791,7 +1853,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3294</t>
+          <t>3294</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1843,7 +1905,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3297</t>
+          <t>3297</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1895,7 +1957,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3298</t>
+          <t>3298</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1947,7 +2009,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3334</t>
+          <t>3334</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1999,7 +2061,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3336</t>
+          <t>3336</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2051,7 +2113,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3338</t>
+          <t>3338</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2103,7 +2165,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3353</t>
+          <t>3353</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2155,7 +2217,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3355</t>
+          <t>3355</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2207,7 +2269,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3357</t>
+          <t>3357</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2259,7 +2321,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3398</t>
+          <t>3398</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2311,7 +2373,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3400</t>
+          <t>3400</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2363,7 +2425,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3402</t>
+          <t>3402</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2415,7 +2477,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3404</t>
+          <t>3404</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2467,7 +2529,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3405</t>
+          <t>3405</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2519,7 +2581,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3412</t>
+          <t>3412</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2571,7 +2633,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3450</t>
+          <t>3450</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2623,7 +2685,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3451</t>
+          <t>3451</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2675,7 +2737,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3452</t>
+          <t>3452</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2727,7 +2789,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3453</t>
+          <t>3453</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2779,7 +2841,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3454</t>
+          <t>3454</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2831,7 +2893,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3471</t>
+          <t>3471</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2883,7 +2945,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3472</t>
+          <t>3472</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2935,7 +2997,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3473</t>
+          <t>3473</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2987,7 +3049,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3474</t>
+          <t>3474</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3039,7 +3101,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3475</t>
+          <t>3475</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3091,7 +3153,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3478</t>
+          <t>3478</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3143,7 +3205,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3480</t>
+          <t>3480</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3195,7 +3257,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3481</t>
+          <t>3481</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3247,7 +3309,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3506</t>
+          <t>3506</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3299,7 +3361,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3510</t>
+          <t>3510</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3351,7 +3413,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3513</t>
+          <t>3513</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3403,7 +3465,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3520</t>
+          <t>3520</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3455,7 +3517,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3521</t>
+          <t>3521</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3507,7 +3569,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3525</t>
+          <t>3525</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3559,7 +3621,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3527</t>
+          <t>3527</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3611,7 +3673,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3531</t>
+          <t>3531</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3663,7 +3725,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3532</t>
+          <t>3532</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3715,7 +3777,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3533</t>
+          <t>3533</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3767,7 +3829,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3535</t>
+          <t>3535</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3819,7 +3881,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3538</t>
+          <t>3538</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3871,7 +3933,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3580</t>
+          <t>3580</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3923,7 +3985,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3581</t>
+          <t>3581</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3975,7 +4037,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3583</t>
+          <t>3583</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -4027,7 +4089,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3593</t>
+          <t>3593</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4079,7 +4141,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3617</t>
+          <t>3617</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4131,7 +4193,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3622</t>
+          <t>3622</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4183,7 +4245,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3625</t>
+          <t>3625</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4235,7 +4297,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3629</t>
+          <t>3629</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4287,7 +4349,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3655</t>
+          <t>3655</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4339,7 +4401,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3657</t>
+          <t>3657</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4391,7 +4453,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3661</t>
+          <t>3661</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4443,7 +4505,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3678</t>
+          <t>3678</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4495,7 +4557,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3680</t>
+          <t>3680</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4547,7 +4609,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3683</t>
+          <t>3683</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4599,7 +4661,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3752</t>
+          <t>3752</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4651,7 +4713,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3757</t>
+          <t>3757</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4703,7 +4765,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3852</t>
+          <t>3852</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4755,7 +4817,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3853</t>
+          <t>3853</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4807,7 +4869,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3855</t>
+          <t>3855</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4859,7 +4921,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3892</t>
+          <t>3892</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4911,7 +4973,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3893</t>
+          <t>3893</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4963,7 +5025,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3898</t>
+          <t>3898</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -5015,7 +5077,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3900</t>
+          <t>3900</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -5067,7 +5129,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3905</t>
+          <t>3905</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -5119,7 +5181,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3907</t>
+          <t>3907</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -5171,7 +5233,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3909</t>
+          <t>3909</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -5223,7 +5285,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3939</t>
+          <t>3939</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -5275,7 +5337,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3943</t>
+          <t>3943</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -5327,7 +5389,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3944</t>
+          <t>3944</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -5379,7 +5441,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4228</t>
+          <t>4228</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -5431,7 +5493,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4229</t>
+          <t>4229</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -5483,7 +5545,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4230</t>
+          <t>4230</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -5535,7 +5597,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4253</t>
+          <t>4253</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -5587,7 +5649,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4254</t>
+          <t>4254</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -5627,7 +5689,6 @@
           <t>100</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr"/>
       <c r="C101" t="inlineStr">
         <is>
           <t>25/02/2019</t>
@@ -5635,7 +5696,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4255</t>
+          <t>4255</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -5687,7 +5748,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4256</t>
+          <t>4256</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -5739,7 +5800,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4260</t>
+          <t>4260</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -5791,7 +5852,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4285</t>
+          <t>4285</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -5843,7 +5904,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4286</t>
+          <t>4286</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -5895,7 +5956,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4291</t>
+          <t>4291</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -5947,7 +6008,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4293</t>
+          <t>4293</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -5999,7 +6060,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4296</t>
+          <t>4296</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -6051,7 +6112,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4304</t>
+          <t>4304</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -6091,7 +6152,6 @@
           <t>109</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr"/>
       <c r="C110" t="inlineStr">
         <is>
           <t>10/06/2019</t>
@@ -6099,7 +6159,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4317</t>
+          <t>4317</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -6151,7 +6211,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4325</t>
+          <t>4325</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -6203,7 +6263,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4413</t>
+          <t>4413</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -6255,7 +6315,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4414</t>
+          <t>4414</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -6307,7 +6367,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4417</t>
+          <t>4417</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -6359,7 +6419,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4449</t>
+          <t>4449</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -6411,7 +6471,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4450</t>
+          <t>4450</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -6463,7 +6523,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4451</t>
+          <t>4451</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -6515,7 +6575,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4483</t>
+          <t>4483</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -6567,7 +6627,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4484</t>
+          <t>4484</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -6619,7 +6679,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4486</t>
+          <t>4486</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -6671,7 +6731,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4533</t>
+          <t>4533</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -6723,7 +6783,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4535</t>
+          <t>4535</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -6775,7 +6835,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4536</t>
+          <t>4536</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -6806,6 +6866,565 @@
       <c r="J123" t="inlineStr">
         <is>
           <t>30</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4285</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2.36%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4286</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.38%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4291</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>5.14%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4293</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2.43%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4296</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1.97%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4304</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4317</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4325</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4413</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>13.49%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4414</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4417</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2.66%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4449</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>15.68%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4450</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4451</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>36.96%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4483</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>4</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1.63%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4484</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4486</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4533</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4535</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0.52%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4536</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>11.24%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/WIN/PlayerPerformance_3703.xlsx
+++ b/bin/sheets/main_db/teams/WIN/PlayerPerformance_3703.xlsx
@@ -1,15 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -608,6 +607,7 @@
           <t>2</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>28/06/2009</t>
@@ -707,6 +707,7 @@
           <t>4</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>05/07/2009</t>
@@ -1794,6 +1795,7 @@
           <t>25</t>
         </is>
       </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>05/05/2011</t>
@@ -5689,6 +5691,7 @@
           <t>100</t>
         </is>
       </c>
+      <c r="B101" t="inlineStr"/>
       <c r="C101" t="inlineStr">
         <is>
           <t>25/02/2019</t>
@@ -6152,6 +6155,7 @@
           <t>109</t>
         </is>
       </c>
+      <c r="B110" t="inlineStr"/>
       <c r="C110" t="inlineStr">
         <is>
           <t>10/06/2019</t>
@@ -6164,7 +6168,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -6866,565 +6870,6 @@
       <c r="J123" t="inlineStr">
         <is>
           <t>30</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4285</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2.36%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4286</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0.38%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4291</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>5.14%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4293</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2.43%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4296</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>3</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>1.97%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4304</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>3</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4317</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4325</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4413</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>3</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>13.49%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4414</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4417</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>5</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>2.66%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4449</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>3</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>15.68%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4450</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4451</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>36.96%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4483</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>4</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>1.63%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4484</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4486</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4533</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4535</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>3</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>0.52%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4536</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>3</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>11.24%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
         </is>
       </c>
     </row>
